--- a/natmiOut/OldD0/LR-pairs_lrc2p/Fstl1-Dip2a.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Fstl1-Dip2a.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.92037837359542</v>
+        <v>13.87751133333333</v>
       </c>
       <c r="H2">
-        <v>4.92037837359542</v>
+        <v>41.632534</v>
       </c>
       <c r="I2">
-        <v>0.01414469317429971</v>
+        <v>0.03879702495420557</v>
       </c>
       <c r="J2">
-        <v>0.01414469317429971</v>
+        <v>0.03879702495420557</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.48448992974407</v>
+        <v>6.275702333333334</v>
       </c>
       <c r="N2">
-        <v>5.48448992974407</v>
+        <v>18.827107</v>
       </c>
       <c r="O2">
-        <v>0.2345301021793541</v>
+        <v>0.2560867246427467</v>
       </c>
       <c r="P2">
-        <v>0.2345301021793541</v>
+        <v>0.2560867246427466</v>
       </c>
       <c r="Q2">
-        <v>26.98576564051459</v>
+        <v>87.09113025545979</v>
       </c>
       <c r="R2">
-        <v>26.98576564051459</v>
+        <v>783.8201722991381</v>
       </c>
       <c r="S2">
-        <v>0.003317356335464123</v>
+        <v>0.009935403046405413</v>
       </c>
       <c r="T2">
-        <v>0.003317356335464123</v>
+        <v>0.009935403046405411</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.92037837359542</v>
+        <v>13.87751133333333</v>
       </c>
       <c r="H3">
-        <v>4.92037837359542</v>
+        <v>41.632534</v>
       </c>
       <c r="I3">
-        <v>0.01414469317429971</v>
+        <v>0.03879702495420557</v>
       </c>
       <c r="J3">
-        <v>0.01414469317429971</v>
+        <v>0.03879702495420557</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.991571484984149</v>
+        <v>10.25829966666667</v>
       </c>
       <c r="N3">
-        <v>9.991571484984149</v>
+        <v>30.774899</v>
       </c>
       <c r="O3">
-        <v>0.427263849751476</v>
+        <v>0.418600854933333</v>
       </c>
       <c r="P3">
-        <v>0.427263849751476</v>
+        <v>0.418600854933333</v>
       </c>
       <c r="Q3">
-        <v>49.16231225294868</v>
+        <v>142.3596698848962</v>
       </c>
       <c r="R3">
-        <v>49.16231225294868</v>
+        <v>1281.237028964066</v>
       </c>
       <c r="S3">
-        <v>0.006043516059204718</v>
+        <v>0.01624046781470031</v>
       </c>
       <c r="T3">
-        <v>0.006043516059204718</v>
+        <v>0.01624046781470031</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.92037837359542</v>
+        <v>13.87751133333333</v>
       </c>
       <c r="H4">
-        <v>4.92037837359542</v>
+        <v>41.632534</v>
       </c>
       <c r="I4">
-        <v>0.01414469317429971</v>
+        <v>0.03879702495420557</v>
       </c>
       <c r="J4">
-        <v>0.01414469317429971</v>
+        <v>0.03879702495420557</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.90895346728412</v>
+        <v>7.972158333333333</v>
       </c>
       <c r="N4">
-        <v>7.90895346728412</v>
+        <v>23.916475</v>
       </c>
       <c r="O4">
-        <v>0.33820604806917</v>
+        <v>0.3253124204239203</v>
       </c>
       <c r="P4">
-        <v>0.33820604806917</v>
+        <v>0.3253124204239203</v>
       </c>
       <c r="Q4">
-        <v>38.91504359819729</v>
+        <v>110.6337176219611</v>
       </c>
       <c r="R4">
-        <v>38.91504359819729</v>
+        <v>995.70345859765</v>
       </c>
       <c r="S4">
-        <v>0.004783820779630868</v>
+        <v>0.01262115409309985</v>
       </c>
       <c r="T4">
-        <v>0.004783820779630868</v>
+        <v>0.01262115409309985</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>310.87717663959</v>
+        <v>311.415324</v>
       </c>
       <c r="H5">
-        <v>310.87717663959</v>
+        <v>934.2459719999999</v>
       </c>
       <c r="I5">
-        <v>0.893683766690976</v>
+        <v>0.8706163379113565</v>
       </c>
       <c r="J5">
-        <v>0.893683766690976</v>
+        <v>0.8706163379113564</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.48448992974407</v>
+        <v>6.275702333333334</v>
       </c>
       <c r="N5">
-        <v>5.48448992974407</v>
+        <v>18.827107</v>
       </c>
       <c r="O5">
-        <v>0.2345301021793541</v>
+        <v>0.2560867246427467</v>
       </c>
       <c r="P5">
-        <v>0.2345301021793541</v>
+        <v>0.2560867246427466</v>
       </c>
       <c r="Q5">
-        <v>1705.0027446671</v>
+        <v>1954.349875462556</v>
       </c>
       <c r="R5">
-        <v>1705.0027446671</v>
+        <v>17589.148879163</v>
       </c>
       <c r="S5">
-        <v>0.2095957451180647</v>
+        <v>0.2229532863961821</v>
       </c>
       <c r="T5">
-        <v>0.2095957451180647</v>
+        <v>0.222953286396182</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>310.87717663959</v>
+        <v>311.415324</v>
       </c>
       <c r="H6">
-        <v>310.87717663959</v>
+        <v>934.2459719999999</v>
       </c>
       <c r="I6">
-        <v>0.893683766690976</v>
+        <v>0.8706163379113565</v>
       </c>
       <c r="J6">
-        <v>0.893683766690976</v>
+        <v>0.8706163379113564</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.991571484984149</v>
+        <v>10.25829966666667</v>
       </c>
       <c r="N6">
-        <v>9.991571484984149</v>
+        <v>30.774899</v>
       </c>
       <c r="O6">
-        <v>0.427263849751476</v>
+        <v>0.418600854933333</v>
       </c>
       <c r="P6">
-        <v>0.427263849751476</v>
+        <v>0.418600854933333</v>
       </c>
       <c r="Q6">
-        <v>3106.151533444508</v>
+        <v>3194.591714384092</v>
       </c>
       <c r="R6">
-        <v>3106.151533444508</v>
+        <v>28751.32542945683</v>
       </c>
       <c r="S6">
-        <v>0.3818387666167863</v>
+        <v>0.3644407433686214</v>
       </c>
       <c r="T6">
-        <v>0.3818387666167863</v>
+        <v>0.3644407433686213</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>310.87717663959</v>
+        <v>311.415324</v>
       </c>
       <c r="H7">
-        <v>310.87717663959</v>
+        <v>934.2459719999999</v>
       </c>
       <c r="I7">
-        <v>0.893683766690976</v>
+        <v>0.8706163379113565</v>
       </c>
       <c r="J7">
-        <v>0.893683766690976</v>
+        <v>0.8706163379113564</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.90895346728412</v>
+        <v>7.972158333333333</v>
       </c>
       <c r="N7">
-        <v>7.90895346728412</v>
+        <v>23.916475</v>
       </c>
       <c r="O7">
-        <v>0.33820604806917</v>
+        <v>0.3253124204239203</v>
       </c>
       <c r="P7">
-        <v>0.33820604806917</v>
+        <v>0.3253124204239203</v>
       </c>
       <c r="Q7">
-        <v>2458.713124083183</v>
+        <v>2482.6522703543</v>
       </c>
       <c r="R7">
-        <v>2458.713124083183</v>
+        <v>22343.8704331887</v>
       </c>
       <c r="S7">
-        <v>0.3022492549561251</v>
+        <v>0.2832223081465531</v>
       </c>
       <c r="T7">
-        <v>0.3022492549561251</v>
+        <v>0.283222308146553</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>32.0628271784575</v>
+        <v>32.40240933333333</v>
       </c>
       <c r="H8">
-        <v>32.0628271784575</v>
+        <v>97.207228</v>
       </c>
       <c r="I8">
-        <v>0.09217154013472416</v>
+        <v>0.09058663713443794</v>
       </c>
       <c r="J8">
-        <v>0.09217154013472416</v>
+        <v>0.09058663713443794</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.48448992974407</v>
+        <v>6.275702333333334</v>
       </c>
       <c r="N8">
-        <v>5.48448992974407</v>
+        <v>18.827107</v>
       </c>
       <c r="O8">
-        <v>0.2345301021793541</v>
+        <v>0.2560867246427467</v>
       </c>
       <c r="P8">
-        <v>0.2345301021793541</v>
+        <v>0.2560867246427466</v>
       </c>
       <c r="Q8">
-        <v>175.8482527793747</v>
+        <v>203.3478758588218</v>
       </c>
       <c r="R8">
-        <v>175.8482527793747</v>
+        <v>1830.130882729396</v>
       </c>
       <c r="S8">
-        <v>0.0216170007258253</v>
+        <v>0.02319803520015922</v>
       </c>
       <c r="T8">
-        <v>0.0216170007258253</v>
+        <v>0.02319803520015921</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>32.0628271784575</v>
+        <v>32.40240933333333</v>
       </c>
       <c r="H9">
-        <v>32.0628271784575</v>
+        <v>97.207228</v>
       </c>
       <c r="I9">
-        <v>0.09217154013472416</v>
+        <v>0.09058663713443794</v>
       </c>
       <c r="J9">
-        <v>0.09217154013472416</v>
+        <v>0.09058663713443794</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>9.991571484984149</v>
+        <v>10.25829966666667</v>
       </c>
       <c r="N9">
-        <v>9.991571484984149</v>
+        <v>30.774899</v>
       </c>
       <c r="O9">
-        <v>0.427263849751476</v>
+        <v>0.418600854933333</v>
       </c>
       <c r="P9">
-        <v>0.427263849751476</v>
+        <v>0.418600854933333</v>
       </c>
       <c r="Q9">
-        <v>320.3580297642508</v>
+        <v>332.3936248633302</v>
       </c>
       <c r="R9">
-        <v>320.3580297642508</v>
+        <v>2991.542623769972</v>
       </c>
       <c r="S9">
-        <v>0.03938156707548492</v>
+        <v>0.03791964375001134</v>
       </c>
       <c r="T9">
-        <v>0.03938156707548492</v>
+        <v>0.03791964375001133</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>32.0628271784575</v>
+        <v>32.40240933333333</v>
       </c>
       <c r="H10">
-        <v>32.0628271784575</v>
+        <v>97.207228</v>
       </c>
       <c r="I10">
-        <v>0.09217154013472416</v>
+        <v>0.09058663713443794</v>
       </c>
       <c r="J10">
-        <v>0.09217154013472416</v>
+        <v>0.09058663713443794</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.90895346728412</v>
+        <v>7.972158333333333</v>
       </c>
       <c r="N10">
-        <v>7.90895346728412</v>
+        <v>23.916475</v>
       </c>
       <c r="O10">
-        <v>0.33820604806917</v>
+        <v>0.3253124204239203</v>
       </c>
       <c r="P10">
-        <v>0.33820604806917</v>
+        <v>0.3253124204239203</v>
       </c>
       <c r="Q10">
-        <v>253.583408183993</v>
+        <v>258.3171375868111</v>
       </c>
       <c r="R10">
-        <v>253.583408183993</v>
+        <v>2324.8542382813</v>
       </c>
       <c r="S10">
-        <v>0.03117297233341395</v>
+        <v>0.02946895818426739</v>
       </c>
       <c r="T10">
-        <v>0.03117297233341395</v>
+        <v>0.02946895818426739</v>
       </c>
     </row>
   </sheetData>
